--- a/others/SSKoy.xlsx
+++ b/others/SSKoy.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeric\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeric\Documents\GitHub\zmk-config-ssk\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF3276F-82D1-4E58-B5A4-C36844AE57D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31395" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
     <sheet name="mapping" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="139">
   <si>
     <t xml:space="preserve">&amp;kp LEFT      </t>
   </si>
@@ -431,12 +445,18 @@
   </si>
   <si>
     <t>&amp;bootloader</t>
+  </si>
+  <si>
+    <t>&amp;kp RALT</t>
+  </si>
+  <si>
+    <t>&amp;bt BT_CLR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -941,7 +961,7 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1022,7 +1042,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1060,7 +1086,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1098,7 +1130,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1386,7 +1424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2039,14 +2077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2254,7 @@
         <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
@@ -2278,7 +2316,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>1</v>
@@ -2319,8 +2357,8 @@
       <c r="R5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>136</v>
+      <c r="S5" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2392,8 +2430,8 @@
       <c r="C7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
+      <c r="D7" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>

--- a/others/SSKoy.xlsx
+++ b/others/SSKoy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeric\Documents\GitHub\zmk-config-ssk\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF3276F-82D1-4E58-B5A4-C36844AE57D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135B6C27-C4ED-479B-9442-5F7B773C33AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="151">
   <si>
     <t xml:space="preserve">&amp;kp LEFT      </t>
   </si>
@@ -447,10 +447,46 @@
     <t>&amp;bootloader</t>
   </si>
   <si>
-    <t>&amp;kp RALT</t>
-  </si>
-  <si>
     <t>&amp;bt BT_CLR</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>COMBO</t>
+  </si>
+  <si>
+    <t>&amp;kp SLCK</t>
+  </si>
+  <si>
+    <t>&amp;lt COMBO LWIN</t>
+  </si>
+  <si>
+    <t>&amp;bt BT_NXT</t>
+  </si>
+  <si>
+    <t>&amp;Bt BT_PRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;out OUT_TOG     </t>
+  </si>
+  <si>
+    <t>&amp;trans</t>
+  </si>
+  <si>
+    <t>&amp;kp RGUI</t>
+  </si>
+  <si>
+    <t>&amp;kp C_VOL_UP</t>
+  </si>
+  <si>
+    <t>&amp;kp C_VOL_DN</t>
+  </si>
+  <si>
+    <t>&amp;kp LC(Q)</t>
+  </si>
+  <si>
+    <t>&amp;kp LA(F4)</t>
   </si>
 </sst>
 </file>
@@ -958,7 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -967,6 +1003,7 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2078,222 +2115,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="19" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="20" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="6">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E1" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6">
         <v>2</v>
       </c>
-      <c r="F1" s="6">
+      <c r="G1" s="6">
         <v>3</v>
       </c>
-      <c r="G1" s="6">
+      <c r="H1" s="6">
         <v>4</v>
       </c>
-      <c r="H1" s="6">
+      <c r="I1" s="6">
         <v>5</v>
       </c>
-      <c r="I1" s="6">
-        <v>6</v>
-      </c>
       <c r="J1" s="6">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6">
         <v>7</v>
       </c>
-      <c r="K1" s="6">
+      <c r="L1" s="6">
         <v>8</v>
       </c>
-      <c r="L1" s="6">
+      <c r="M1" s="6">
         <v>9</v>
       </c>
-      <c r="M1" s="6">
+      <c r="N1" s="6">
         <v>10</v>
       </c>
-      <c r="N1" s="6">
+      <c r="O1" s="6">
         <v>11</v>
       </c>
-      <c r="O1" s="6">
+      <c r="P1" s="6">
         <v>12</v>
       </c>
-      <c r="P1" s="6">
+      <c r="Q1" s="6">
         <v>13</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="R1" s="6">
         <v>14</v>
       </c>
-      <c r="R1" s="6">
+      <c r="S1" s="6">
         <v>15</v>
       </c>
-      <c r="S1" s="6">
+      <c r="T1" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D3" s="2"/>
+      <c r="E3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="K4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>1</v>
@@ -2301,421 +2339,832 @@
       <c r="S4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="T4" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>99</v>
+      <c r="G15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>1</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>1</v>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>1</v>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>100</v>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>1</v>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/others/SSKoy.xlsx
+++ b/others/SSKoy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeric\Documents\GitHub\zmk-config-ssk\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135B6C27-C4ED-479B-9442-5F7B773C33AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80056070-6F83-4554-A555-5D713C79C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" r:id="rId1"/>
@@ -465,9 +465,6 @@
     <t>&amp;bt BT_NXT</t>
   </si>
   <si>
-    <t>&amp;Bt BT_PRV</t>
-  </si>
-  <si>
     <t xml:space="preserve">&amp;out OUT_TOG     </t>
   </si>
   <si>
@@ -487,6 +484,9 @@
   </si>
   <si>
     <t>&amp;kp LA(F4)</t>
+  </si>
+  <si>
+    <t>&amp;bt BT_PRV</t>
   </si>
 </sst>
 </file>
@@ -994,7 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1003,7 +1003,6 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2121,7 +2120,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2295,7 +2294,7 @@
         <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>0</v>
@@ -2471,7 +2470,7 @@
       <c r="D7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -2950,7 +2949,7 @@
         <v>19</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>19</v>
@@ -2961,13 +2960,13 @@
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>19</v>
@@ -2991,16 +2990,16 @@
         <v>19</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>19</v>
@@ -3150,7 +3149,7 @@
         <v>19</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>19</v>
